--- a/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
+++ b/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report_01_Study_population_ALL" sheetId="1" r:id="rId1"/>
+    <sheet name="Report_02_Dates_ALL" sheetId="2" r:id="rId2"/>
+    <sheet name="Report_03_VisitsLifestyle_ALL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Calculation</t>
   </si>
@@ -36,6 +38,48 @@
   </si>
   <si>
     <t>Denominator</t>
+  </si>
+  <si>
+    <t>1. Population tree input source population at start study</t>
+  </si>
+  <si>
+    <t>2. Compare Source versus Study population</t>
+  </si>
+  <si>
+    <t>3. Number of persons and follow up time by age at start follow up and year of start follow up</t>
+  </si>
+  <si>
+    <t>4. Persontime distribution by age, sex and calendar year (CountPersonTime)</t>
+  </si>
+  <si>
+    <t>5. Persontime by Year Month (CountPersonTime)</t>
+  </si>
+  <si>
+    <t>6. Duration for persons to be registered in the study population after birth (weeks)</t>
+  </si>
+  <si>
+    <t>7. Median follow-up for persons that are registered in the study population within 8 weeks after birth by year of birth</t>
+  </si>
+  <si>
+    <t>1. Distribution of start_follow_up by year and month</t>
+  </si>
+  <si>
+    <t>2. Distribution of end_follow_up by year and month</t>
+  </si>
+  <si>
+    <t>3. Distribution of birth date by year and month</t>
+  </si>
+  <si>
+    <t>4. Distribution of birth date by day month</t>
+  </si>
+  <si>
+    <t>1. Number of visits in study population per year and age at the moment of the visit</t>
+  </si>
+  <si>
+    <t>2. Lifestyle facors in women of childbearing age</t>
+  </si>
+  <si>
+    <t>person_id</t>
   </si>
 </sst>
 </file>
@@ -362,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="114.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
@@ -390,8 +434,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
+++ b/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Report_01_Study_population_ALL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Calculation</t>
   </si>
@@ -79,7 +79,31 @@
     <t>2. Lifestyle facors in women of childbearing age</t>
   </si>
   <si>
-    <t>person_id</t>
+    <t>R_01_01_POPTREE.csv</t>
+  </si>
+  <si>
+    <t>Output file</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Description of calculation</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>At start_study_date agebands are assiged to all persons in source population. Negative ages are removed. Than the Number of unique persons is devided by number of total unique persons per ageband for male and female.</t>
+  </si>
+  <si>
+    <t>Person_id</t>
+  </si>
+  <si>
+    <t>Person_id/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the source and study population an ageband is assigned to the age at op_start_date. Moreover, the year of op_start_date is added for both tables. Than, for the source population the time between op_start_date and op_end_date is calculated while for the study population the time of inclusion is calculated as the time between start_follow_up (maximum date out of start_study_date, op_start_date + 365 days) and end_follow_up (minimum date out of end_study_date, op_end_date, date_creation, recommended_end_date and the date at which the age of 56 is reached). Eventually, the time difference in years from source and study population a is summed by year op_start_date and the ageband at op_start_date. In the table, the decline of PY source to PY study represents the lost follow_up time from the initial extraction to the follow_up time that is used for the study. </t>
   </si>
 </sst>
 </file>
@@ -406,32 +430,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="114.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,9 +463,12 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -449,6 +476,12 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -474,6 +507,9 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
+++ b/Level_3_to_be_deployed1.0/p_steps/Explanations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Report_01_Study_population_ALL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Calculation</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">For the source and study population an ageband is assigned to the age at op_start_date. Moreover, the year of op_start_date is added for both tables. Than, for the source population the time between op_start_date and op_end_date is calculated while for the study population the time of inclusion is calculated as the time between start_follow_up (maximum date out of start_study_date, op_start_date + 365 days) and end_follow_up (minimum date out of end_study_date, op_end_date, date_creation, recommended_end_date and the date at which the age of 56 is reached). Eventually, the time difference in years from source and study population a is summed by year op_start_date and the ageband at op_start_date. In the table, the decline of PY source to PY study represents the lost follow_up time from the initial extraction to the follow_up time that is used for the study. </t>
+  </si>
+  <si>
+    <t>ALL_R_01_02_CompareToSource.csv</t>
+  </si>
+  <si>
+    <t>ALL_R_01_03_STUDYPOP.csv</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,15 +438,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="114.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+    <col min="3" max="3" width="108.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,10 +488,16 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
